--- a/Reports/MacOS/manual/SafariManualTest.xlsx
+++ b/Reports/MacOS/manual/SafariManualTest.xlsx
@@ -102,7 +102,7 @@
     <t>12/22/21 04:15:32</t>
   </si>
   <si>
-    <t>458d1ca18dea29c46eed82ba24d949e280688bae</t>
+    <t>c2be794f7301df1bd8946c84b9a30a47e634e8da</t>
   </si>
   <si>
     <t>The test machine must have internet connection
@@ -112,7 +112,7 @@
     <t>Webdriver and corresponding Safari browser must close successfully.</t>
   </si>
   <si>
-    <t xml:space="preserve">- Upload test results for MAC OS
+    <t xml:space="preserve">Merge branch 'main' of https://github.com/lgjp-open-source/TestManagementSample into main
 </t>
   </si>
   <si>

--- a/Reports/MacOS/manual/SafariManualTest.xlsx
+++ b/Reports/MacOS/manual/SafariManualTest.xlsx
@@ -102,7 +102,7 @@
     <t>12/22/21 04:15:32</t>
   </si>
   <si>
-    <t>c2be794f7301df1bd8946c84b9a30a47e634e8da</t>
+    <t>60fae1ae809c88f7459fa093ef91050d1d7896ba</t>
   </si>
   <si>
     <t>The test machine must have internet connection
@@ -112,7 +112,7 @@
     <t>Webdriver and corresponding Safari browser must close successfully.</t>
   </si>
   <si>
-    <t xml:space="preserve">Merge branch 'main' of https://github.com/lgjp-open-source/TestManagementSample into main
+    <t xml:space="preserve">- Add Linux test results
 </t>
   </si>
   <si>

--- a/Reports/MacOS/manual/SafariManualTest.xlsx
+++ b/Reports/MacOS/manual/SafariManualTest.xlsx
@@ -102,7 +102,7 @@
     <t>12/22/21 04:15:32</t>
   </si>
   <si>
-    <t>60fae1ae809c88f7459fa093ef91050d1d7896ba</t>
+    <t>dc6a09580669a478296c8f6d5f682cf9d201d974</t>
   </si>
   <si>
     <t>The test machine must have internet connection
@@ -112,8 +112,7 @@
     <t>Webdriver and corresponding Safari browser must close successfully.</t>
   </si>
   <si>
-    <t xml:space="preserve">- Add Linux test results
-</t>
+    <t>Delete advance.md</t>
   </si>
   <si>
     <t>Pass</t>

--- a/Reports/MacOS/manual/SafariManualTest.xlsx
+++ b/Reports/MacOS/manual/SafariManualTest.xlsx
@@ -102,7 +102,7 @@
     <t>12/22/21 04:15:32</t>
   </si>
   <si>
-    <t>dc6a09580669a478296c8f6d5f682cf9d201d974</t>
+    <t>76ebaf2b7f0ed251d3b47f8a6ef279cd00691a08</t>
   </si>
   <si>
     <t>The test machine must have internet connection
@@ -112,7 +112,7 @@
     <t>Webdriver and corresponding Safari browser must close successfully.</t>
   </si>
   <si>
-    <t>Delete advance.md</t>
+    <t>Update README.md</t>
   </si>
   <si>
     <t>Pass</t>
